--- a/src/analises/result/excel/mefs_aleatorias/resultDepthAlltrans.xlsx
+++ b/src/analises/result/excel/mefs_aleatorias/resultDepthAlltrans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/excel/mefs_aleatorias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B8CEFAF-B57F-5A49-B5F1-F164B61350F1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F0A4DB-50AA-9E44-A1BD-4D6B68E7F21E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9940" yWindow="1960" windowWidth="27240" windowHeight="16440"/>
+    <workbookView xWindow="9940" yWindow="1960" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultDepthAlltrans" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -926,11 +926,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T883"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:T21"/>
+      <selection sqref="A1:J883"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/analises/result/excel/mefs_aleatorias/resultDepthAlltrans.xlsx
+++ b/src/analises/result/excel/mefs_aleatorias/resultDepthAlltrans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/excel/mefs_aleatorias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B503CD2A-DBD2-BC4C-A105-B82FF2BC8ABF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B6904D-A043-ED4D-A800-2D23082072A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9940" yWindow="1960" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1030,19 +1030,19 @@
       </c>
       <c r="M2">
         <f>SUM(C591:C689)/M13</f>
-        <v>3.3838383838383836</v>
+        <v>3.2424242424242422</v>
       </c>
       <c r="N2">
         <f t="shared" ref="N2:T2" si="0">SUM(D591:D689)/N13</f>
-        <v>37.292929292929294</v>
+        <v>35.939393939393938</v>
       </c>
       <c r="O2">
         <f t="shared" si="0"/>
-        <v>33.909090909090907</v>
+        <v>32.696969696969695</v>
       </c>
       <c r="P2">
         <f t="shared" si="0"/>
-        <v>8.5959595959595951</v>
+        <v>8.6363636363636367</v>
       </c>
       <c r="Q2">
         <f t="shared" si="0"/>
@@ -1050,15 +1050,15 @@
       </c>
       <c r="R2">
         <f t="shared" si="0"/>
-        <v>10.428451178451169</v>
+        <v>10.467340067340057</v>
       </c>
       <c r="S2">
         <f t="shared" si="0"/>
-        <v>2.0822601748061449</v>
+        <v>2.1087946354901415</v>
       </c>
       <c r="T2">
         <f t="shared" si="0"/>
-        <v>6.4991582491582438</v>
+        <v>6.8521885521885464</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -1097,19 +1097,19 @@
       </c>
       <c r="M3">
         <f>SUM(C690:C787)/M14</f>
-        <v>5.3367346938775508</v>
+        <v>5.2653061224489797</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:T3" si="1">SUM(D690:D787)/N14</f>
-        <v>82.469387755102048</v>
+        <v>81.408163265306129</v>
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>77.132653061224488</v>
+        <v>76.142857142857139</v>
       </c>
       <c r="P3">
         <f t="shared" si="1"/>
-        <v>11.438775510204081</v>
+        <v>11.448979591836734</v>
       </c>
       <c r="Q3">
         <f t="shared" si="1"/>
@@ -1117,15 +1117,15 @@
       </c>
       <c r="R3">
         <f t="shared" si="1"/>
-        <v>14.99133057985097</v>
+        <v>14.998594914156122</v>
       </c>
       <c r="S3">
         <f t="shared" si="1"/>
-        <v>2.9063587350043787</v>
+        <v>2.9149604159135682</v>
       </c>
       <c r="T3">
         <f t="shared" si="1"/>
-        <v>10.816476352445724</v>
+        <v>10.869173145448642</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -1164,19 +1164,19 @@
       </c>
       <c r="M4">
         <f>SUM(C788:C883)/M15</f>
-        <v>7.791666666666667</v>
+        <v>7.739583333333333</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:T4" si="2">SUM(D788:D883)/N15</f>
-        <v>140.80208333333334</v>
+        <v>139.82291666666666</v>
       </c>
       <c r="O4">
         <f t="shared" si="2"/>
-        <v>133.01041666666666</v>
+        <v>132.08333333333334</v>
       </c>
       <c r="P4">
         <f t="shared" si="2"/>
-        <v>11.895833333333334</v>
+        <v>11.875</v>
       </c>
       <c r="Q4">
         <f t="shared" si="2"/>
@@ -1184,15 +1184,15 @@
       </c>
       <c r="R4">
         <f t="shared" si="2"/>
-        <v>17.76067451067448</v>
+        <v>17.737199808293525</v>
       </c>
       <c r="S4">
         <f t="shared" si="2"/>
-        <v>4.1610281904316331</v>
+        <v>4.1715809526450505</v>
       </c>
       <c r="T4">
         <f t="shared" si="2"/>
-        <v>20.59734588328336</v>
+        <v>20.705708151801876</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -1231,15 +1231,15 @@
       </c>
       <c r="M5">
         <f>SUM(C2:C98)/M16</f>
-        <v>9.5670103092783503</v>
+        <v>9.5567010309278349</v>
       </c>
       <c r="N5">
         <f t="shared" ref="N5:T5" si="3">SUM(D2:D98)/N16</f>
-        <v>219.49484536082474</v>
+        <v>219.17525773195877</v>
       </c>
       <c r="O5">
         <f t="shared" si="3"/>
-        <v>209.9278350515464</v>
+        <v>209.61855670103094</v>
       </c>
       <c r="P5">
         <f t="shared" si="3"/>
@@ -1251,15 +1251,15 @@
       </c>
       <c r="R5">
         <f t="shared" si="3"/>
-        <v>22.695534963318423</v>
+        <v>22.691754894589906</v>
       </c>
       <c r="S5">
         <f t="shared" si="3"/>
-        <v>4.8284088155260889</v>
+        <v>4.831478835433737</v>
       </c>
       <c r="T5">
         <f t="shared" si="3"/>
-        <v>30.252994170777637</v>
+        <v>30.276018225760449</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -1298,19 +1298,19 @@
       </c>
       <c r="M6">
         <f>SUM(C99:C197)/M17</f>
-        <v>11.515151515151516</v>
+        <v>11.424242424242424</v>
       </c>
       <c r="N6">
         <f t="shared" ref="N6:T6" si="4">SUM(D99:D197)/N17</f>
-        <v>307.49494949494948</v>
+        <v>304.88888888888891</v>
       </c>
       <c r="O6">
         <f t="shared" si="4"/>
-        <v>295.97979797979798</v>
+        <v>293.46464646464648</v>
       </c>
       <c r="P6">
         <f t="shared" si="4"/>
-        <v>15.919191919191919</v>
+        <v>15.94949494949495</v>
       </c>
       <c r="Q6">
         <f t="shared" si="4"/>
@@ -1318,15 +1318,15 @@
       </c>
       <c r="R6">
         <f t="shared" si="4"/>
-        <v>26.213870583433838</v>
+        <v>26.218545902503092</v>
       </c>
       <c r="S6">
         <f t="shared" si="4"/>
-        <v>6.3452085575021302</v>
+        <v>6.3481870648186236</v>
       </c>
       <c r="T6">
         <f t="shared" si="4"/>
-        <v>50.763472834684855</v>
+        <v>50.819269815481839</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -1365,15 +1365,15 @@
       </c>
       <c r="M7">
         <f>SUM(C198:C296)/M18</f>
-        <v>14.020202020202021</v>
+        <v>13.979797979797979</v>
       </c>
       <c r="N7">
         <f t="shared" ref="N7:T7" si="5">SUM(D198:D296)/N18</f>
-        <v>414.97979797979798</v>
+        <v>413.59595959595958</v>
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>400.95959595959596</v>
+        <v>399.61616161616161</v>
       </c>
       <c r="P7">
         <f t="shared" si="5"/>
@@ -1385,15 +1385,15 @@
       </c>
       <c r="R7">
         <f t="shared" si="5"/>
-        <v>29.20919942764975</v>
+        <v>29.196842760747629</v>
       </c>
       <c r="S7">
         <f t="shared" si="5"/>
-        <v>7.2011670309759435</v>
+        <v>7.2100001229633932</v>
       </c>
       <c r="T7">
         <f t="shared" si="5"/>
-        <v>60.436836080954798</v>
+        <v>60.622459604457113</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -1432,19 +1432,19 @@
       </c>
       <c r="M8">
         <f>SUM(C297:C396)/M19</f>
-        <v>16.3</v>
+        <v>16.29</v>
       </c>
       <c r="N8">
         <f t="shared" ref="N8:T8" si="6">SUM(D297:D396)/N19</f>
-        <v>543.62</v>
+        <v>543.39</v>
       </c>
       <c r="O8">
         <f t="shared" si="6"/>
-        <v>527.32000000000005</v>
+        <v>527.1</v>
       </c>
       <c r="P8">
         <f t="shared" si="6"/>
-        <v>17.21</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="Q8">
         <f t="shared" si="6"/>
@@ -1452,15 +1452,15 @@
       </c>
       <c r="R8">
         <f t="shared" si="6"/>
-        <v>33.144549632294002</v>
+        <v>33.141614438864238</v>
       </c>
       <c r="S8">
         <f t="shared" si="6"/>
-        <v>8.5527159231659535</v>
+        <v>8.5440712697035863</v>
       </c>
       <c r="T8">
         <f t="shared" si="6"/>
-        <v>88.030601090043234</v>
+        <v>87.972993692006469</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -1499,15 +1499,15 @@
       </c>
       <c r="M9">
         <f>SUM(C397:C493)/M20</f>
-        <v>18.185567010309278</v>
+        <v>18.164948453608247</v>
       </c>
       <c r="N9">
         <f t="shared" ref="N9:T9" si="7">SUM(D397:D493)/N20</f>
-        <v>692.65979381443299</v>
+        <v>691.95876288659792</v>
       </c>
       <c r="O9">
         <f t="shared" si="7"/>
-        <v>674.47422680412376</v>
+        <v>673.79381443298973</v>
       </c>
       <c r="P9">
         <f t="shared" si="7"/>
@@ -1519,15 +1519,15 @@
       </c>
       <c r="R9">
         <f t="shared" si="7"/>
-        <v>37.708116210876263</v>
+        <v>37.714226289857471</v>
       </c>
       <c r="S9">
         <f t="shared" si="7"/>
-        <v>9.3981537531227932</v>
+        <v>9.396338488846034</v>
       </c>
       <c r="T9">
         <f t="shared" si="7"/>
-        <v>100.13914705889216</v>
+        <v>100.15173110712861</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -1566,15 +1566,15 @@
       </c>
       <c r="M10">
         <f>SUM(C494:C590)/M21</f>
-        <v>20.309278350515463</v>
+        <v>20.24742268041237</v>
       </c>
       <c r="N10">
         <f t="shared" ref="N10:T10" si="8">SUM(D494:D590)/N21</f>
-        <v>846.85567010309273</v>
+        <v>844.70103092783506</v>
       </c>
       <c r="O10">
         <f t="shared" si="8"/>
-        <v>826.54639175257728</v>
+        <v>824.45360824742272</v>
       </c>
       <c r="P10">
         <f t="shared" si="8"/>
@@ -1586,15 +1586,15 @@
       </c>
       <c r="R10">
         <f t="shared" si="8"/>
-        <v>41.392901978010883</v>
+        <v>41.396400249749796</v>
       </c>
       <c r="S10">
         <f t="shared" si="8"/>
-        <v>10.517408472350262</v>
+        <v>10.528739958467511</v>
       </c>
       <c r="T10">
         <f t="shared" si="8"/>
-        <v>123.9160646747435</v>
+        <v>124.19016331558787</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -4038,13 +4038,13 @@
         <v>79</v>
       </c>
       <c r="C77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="E77">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="F77">
         <v>24</v>
@@ -4053,13 +4053,13 @@
         <v>33</v>
       </c>
       <c r="H77">
-        <v>28.1666666666666</v>
+        <v>27.8</v>
       </c>
       <c r="I77">
-        <v>3.6009258068816998</v>
+        <v>3.89871773792358</v>
       </c>
       <c r="J77">
-        <v>12.966666666666599</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -4902,28 +4902,28 @@
         <v>13</v>
       </c>
       <c r="C104">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D104">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="E104">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="F104">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G104">
         <v>40</v>
       </c>
       <c r="H104">
-        <v>33.5</v>
+        <v>34.714285714285701</v>
       </c>
       <c r="I104">
-        <v>5.9281411203561198</v>
+        <v>5.21901286050295</v>
       </c>
       <c r="J104">
-        <v>35.142857142857103</v>
+        <v>27.238095238095202</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
@@ -5254,13 +5254,13 @@
         <v>23</v>
       </c>
       <c r="C115">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D115">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="E115">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="F115">
         <v>19</v>
@@ -5269,13 +5269,13 @@
         <v>37</v>
       </c>
       <c r="H115">
-        <v>30.7777777777777</v>
+        <v>31.125</v>
       </c>
       <c r="I115">
-        <v>5.9535236998305798</v>
+        <v>6.2664070361617199</v>
       </c>
       <c r="J115">
-        <v>35.4444444444444</v>
+        <v>39.267857142857103</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
@@ -5670,13 +5670,13 @@
         <v>35</v>
       </c>
       <c r="C128">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D128">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="E128">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="F128">
         <v>24</v>
@@ -5685,13 +5685,13 @@
         <v>34</v>
       </c>
       <c r="H128">
-        <v>29.5</v>
+        <v>29.428571428571399</v>
       </c>
       <c r="I128">
-        <v>2.7255405754769799</v>
+        <v>2.9358214555806299</v>
       </c>
       <c r="J128">
-        <v>7.4285714285714199</v>
+        <v>8.6190476190476097</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
@@ -5958,13 +5958,13 @@
         <v>43</v>
       </c>
       <c r="C137">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D137">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="E137">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="F137">
         <v>21</v>
@@ -5973,13 +5973,13 @@
         <v>33</v>
       </c>
       <c r="H137">
-        <v>27.5</v>
+        <v>27.090909090909001</v>
       </c>
       <c r="I137">
-        <v>4.4822883765894703</v>
+        <v>4.4599225431512899</v>
       </c>
       <c r="J137">
-        <v>20.090909090909001</v>
+        <v>19.890909090908998</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
@@ -6086,13 +6086,13 @@
         <v>47</v>
       </c>
       <c r="C141">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D141">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="E141">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="F141">
         <v>15</v>
@@ -6101,13 +6101,13 @@
         <v>32</v>
       </c>
       <c r="H141">
-        <v>23.071428571428498</v>
+        <v>22.538461538461501</v>
       </c>
       <c r="I141">
-        <v>6.3906697098707301</v>
+        <v>6.3194855356980897</v>
       </c>
       <c r="J141">
-        <v>40.8406593406593</v>
+        <v>39.935897435897402</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
@@ -6246,13 +6246,13 @@
         <v>51</v>
       </c>
       <c r="C146">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D146">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="E146">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="F146">
         <v>13</v>
@@ -6261,13 +6261,13 @@
         <v>27</v>
       </c>
       <c r="H146">
-        <v>22.214285714285701</v>
+        <v>22</v>
       </c>
       <c r="I146">
-        <v>4.5264788731431098</v>
+        <v>4.6368092477478502</v>
       </c>
       <c r="J146">
-        <v>20.4890109890109</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
@@ -6278,28 +6278,28 @@
         <v>52</v>
       </c>
       <c r="C147">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D147">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="E147">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="F147">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G147">
         <v>30</v>
       </c>
       <c r="H147">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="I147">
-        <v>3.8729833462074099</v>
+        <v>3.6893239368630999</v>
       </c>
       <c r="J147">
-        <v>15</v>
+        <v>13.6111111111111</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
@@ -6758,13 +6758,13 @@
         <v>66</v>
       </c>
       <c r="C162">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D162">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="E162">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="F162">
         <v>5</v>
@@ -6773,13 +6773,13 @@
         <v>33</v>
       </c>
       <c r="H162">
-        <v>24.785714285714199</v>
+        <v>24.307692307692299</v>
       </c>
       <c r="I162">
-        <v>10.9837542371839</v>
+        <v>11.279661751611499</v>
       </c>
       <c r="J162">
-        <v>120.642857142857</v>
+        <v>127.230769230769</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
@@ -7366,13 +7366,13 @@
         <v>83</v>
       </c>
       <c r="C181">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D181">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="E181">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="F181">
         <v>26</v>
@@ -7381,13 +7381,13 @@
         <v>37</v>
       </c>
       <c r="H181">
-        <v>30.75</v>
+        <v>30.857142857142801</v>
       </c>
       <c r="I181">
-        <v>4.5276925690686998</v>
+        <v>4.8795003647426602</v>
       </c>
       <c r="J181">
-        <v>20.5</v>
+        <v>23.8095238095238</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
@@ -9286,13 +9286,13 @@
         <v>49</v>
       </c>
       <c r="C241">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D241">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="E241">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="F241">
         <v>5</v>
@@ -9301,13 +9301,13 @@
         <v>37</v>
       </c>
       <c r="H241">
-        <v>23.5833333333333</v>
+        <v>23.090909090909001</v>
       </c>
       <c r="I241">
-        <v>13.0485689451047</v>
+        <v>13.5680105059993</v>
       </c>
       <c r="J241">
-        <v>170.26515151515099</v>
+        <v>184.09090909090901</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
@@ -9318,13 +9318,13 @@
         <v>5</v>
       </c>
       <c r="C242">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D242">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="E242">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="F242">
         <v>18</v>
@@ -9333,13 +9333,13 @@
         <v>39</v>
       </c>
       <c r="H242">
-        <v>31.75</v>
+        <v>31.6666666666666</v>
       </c>
       <c r="I242">
-        <v>7.0851958335673402</v>
+        <v>7.32575365861197</v>
       </c>
       <c r="J242">
-        <v>50.2</v>
+        <v>53.6666666666666</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
@@ -9958,13 +9958,13 @@
         <v>68</v>
       </c>
       <c r="C262">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D262">
-        <v>384</v>
+        <v>343</v>
       </c>
       <c r="E262">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="F262">
         <v>26</v>
@@ -9973,13 +9973,13 @@
         <v>43</v>
       </c>
       <c r="H262">
-        <v>33.909090909090899</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="I262">
-        <v>5.5218573950174603</v>
+        <v>5.4170512683972598</v>
       </c>
       <c r="J262">
-        <v>30.490909090909</v>
+        <v>29.344444444444399</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
@@ -10278,13 +10278,13 @@
         <v>77</v>
       </c>
       <c r="C272">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D272">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="E272">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="F272">
         <v>20</v>
@@ -10293,13 +10293,13 @@
         <v>36</v>
       </c>
       <c r="H272">
-        <v>30.538461538461501</v>
+        <v>30.5</v>
       </c>
       <c r="I272">
-        <v>4.9768695752682497</v>
+        <v>5.1961524227066302</v>
       </c>
       <c r="J272">
-        <v>24.769230769230699</v>
+        <v>27</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
@@ -11302,13 +11302,13 @@
         <v>15</v>
       </c>
       <c r="C304">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D304">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="E304">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="F304">
         <v>14</v>
@@ -11317,13 +11317,13 @@
         <v>31</v>
       </c>
       <c r="H304">
-        <v>24.727272727272702</v>
+        <v>25.047619047619001</v>
       </c>
       <c r="I304">
-        <v>4.6103591243428301</v>
+        <v>4.4662757469304299</v>
       </c>
       <c r="J304">
-        <v>21.2554112554112</v>
+        <v>19.947619047619</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
@@ -11942,28 +11942,28 @@
         <v>33</v>
       </c>
       <c r="C324">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D324">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="E324">
-        <v>553</v>
+        <v>527</v>
       </c>
       <c r="F324">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G324">
         <v>38</v>
       </c>
       <c r="H324">
-        <v>34.5625</v>
+        <v>35.133333333333297</v>
       </c>
       <c r="I324">
-        <v>3.0543684562715501</v>
+        <v>2.0998866182543701</v>
       </c>
       <c r="J324">
-        <v>9.3291666666666604</v>
+        <v>4.4095238095238098</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
@@ -12678,13 +12678,13 @@
         <v>54</v>
       </c>
       <c r="C347">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D347">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="E347">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="F347">
         <v>6</v>
@@ -12693,13 +12693,13 @@
         <v>42</v>
       </c>
       <c r="H347">
-        <v>29.066666666666599</v>
+        <v>28.25</v>
       </c>
       <c r="I347">
-        <v>13.833017781828399</v>
+        <v>13.7574222391648</v>
       </c>
       <c r="J347">
-        <v>191.35238095238</v>
+        <v>189.266666666666</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
@@ -13702,13 +13702,13 @@
         <v>83</v>
       </c>
       <c r="C379">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D379">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="E379">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="F379">
         <v>31</v>
@@ -13717,13 +13717,13 @@
         <v>41</v>
       </c>
       <c r="H379">
-        <v>36.75</v>
+        <v>36.307692307692299</v>
       </c>
       <c r="I379">
-        <v>3.5194266061907902</v>
+        <v>3.7279264876652101</v>
       </c>
       <c r="J379">
-        <v>12.386363636363599</v>
+        <v>13.8974358974359</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.2">
@@ -13830,13 +13830,13 @@
         <v>87</v>
       </c>
       <c r="C383">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D383">
-        <v>665</v>
+        <v>639</v>
       </c>
       <c r="E383">
-        <v>641</v>
+        <v>616</v>
       </c>
       <c r="F383">
         <v>6</v>
@@ -13845,13 +13845,13 @@
         <v>31</v>
       </c>
       <c r="H383">
-        <v>26.7083333333333</v>
+        <v>26.782608695652101</v>
       </c>
       <c r="I383">
-        <v>5.0945765422582001</v>
+        <v>5.19577207264041</v>
       </c>
       <c r="J383">
-        <v>25.9547101449275</v>
+        <v>26.99604743083</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.2">
@@ -14790,13 +14790,13 @@
         <v>23</v>
       </c>
       <c r="C413">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D413">
-        <v>581</v>
+        <v>555</v>
       </c>
       <c r="E413">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="F413">
         <v>5</v>
@@ -14805,13 +14805,13 @@
         <v>47</v>
       </c>
       <c r="H413">
-        <v>29.578947368421002</v>
+        <v>29.8333333333333</v>
       </c>
       <c r="I413">
-        <v>13.4879196545719</v>
+        <v>13.8319748919582</v>
       </c>
       <c r="J413">
-        <v>181.92397660818699</v>
+        <v>191.32352941176401</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.2">
@@ -14982,13 +14982,13 @@
         <v>29</v>
       </c>
       <c r="C419">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D419">
-        <v>696</v>
+        <v>737</v>
       </c>
       <c r="E419">
-        <v>679</v>
+        <v>719</v>
       </c>
       <c r="F419">
         <v>9</v>
@@ -14997,13 +14997,13 @@
         <v>48</v>
       </c>
       <c r="H419">
-        <v>39.941176470588204</v>
+        <v>39.9444444444444</v>
       </c>
       <c r="I419">
-        <v>12.705661081951201</v>
+        <v>12.326309605746999</v>
       </c>
       <c r="J419">
-        <v>161.433823529411</v>
+        <v>151.93790849673201</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.2">
@@ -15302,13 +15302,13 @@
         <v>39</v>
       </c>
       <c r="C429">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D429">
-        <v>701</v>
+        <v>746</v>
       </c>
       <c r="E429">
-        <v>683</v>
+        <v>727</v>
       </c>
       <c r="F429">
         <v>27</v>
@@ -15317,13 +15317,13 @@
         <v>47</v>
       </c>
       <c r="H429">
-        <v>37.9444444444444</v>
+        <v>38.2631578947368</v>
       </c>
       <c r="I429">
-        <v>7.8924552373264998</v>
+        <v>7.7948851125676404</v>
       </c>
       <c r="J429">
-        <v>62.290849673202601</v>
+        <v>60.760233918128598</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.2">
@@ -15430,13 +15430,13 @@
         <v>43</v>
       </c>
       <c r="C433">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D433">
-        <v>769</v>
+        <v>722</v>
       </c>
       <c r="E433">
-        <v>752</v>
+        <v>706</v>
       </c>
       <c r="F433">
         <v>18</v>
@@ -15445,13 +15445,13 @@
         <v>51</v>
       </c>
       <c r="H433">
-        <v>44.235294117647001</v>
+        <v>44.125</v>
       </c>
       <c r="I433">
-        <v>10.6156100376091</v>
+        <v>10.953690397913</v>
       </c>
       <c r="J433">
-        <v>112.691176470588</v>
+        <v>119.98333333333299</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.2">
@@ -16422,13 +16422,13 @@
         <v>71</v>
       </c>
       <c r="C464">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D464">
-        <v>826</v>
+        <v>776</v>
       </c>
       <c r="E464">
-        <v>807</v>
+        <v>758</v>
       </c>
       <c r="F464">
         <v>31</v>
@@ -16437,13 +16437,13 @@
         <v>50</v>
       </c>
       <c r="H464">
-        <v>42.473684210526301</v>
+        <v>42.1111111111111</v>
       </c>
       <c r="I464">
-        <v>5.7093336938797101</v>
+        <v>5.64528839349697</v>
       </c>
       <c r="J464">
-        <v>32.5964912280701</v>
+        <v>31.869281045751599</v>
       </c>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.2">
@@ -17254,13 +17254,13 @@
         <v>96</v>
       </c>
       <c r="C490">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D490">
-        <v>908</v>
+        <v>877</v>
       </c>
       <c r="E490">
-        <v>886</v>
+        <v>856</v>
       </c>
       <c r="F490">
         <v>29</v>
@@ -17269,13 +17269,13 @@
         <v>47</v>
       </c>
       <c r="H490">
-        <v>40.272727272727202</v>
+        <v>40.761904761904702</v>
       </c>
       <c r="I490">
-        <v>6.0172911021316002</v>
+        <v>5.7000417709413398</v>
       </c>
       <c r="J490">
-        <v>36.207792207792203</v>
+        <v>32.490476190476102</v>
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.2">
@@ -19078,13 +19078,13 @@
         <v>57</v>
       </c>
       <c r="C547">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D547">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="E547">
-        <v>814</v>
+        <v>760</v>
       </c>
       <c r="F547">
         <v>25</v>
@@ -19093,13 +19093,13 @@
         <v>57</v>
       </c>
       <c r="H547">
-        <v>42.842105263157897</v>
+        <v>42.2222222222222</v>
       </c>
       <c r="I547">
-        <v>10.0070150832899</v>
+        <v>9.9146686074104906</v>
       </c>
       <c r="J547">
-        <v>100.14035087719201</v>
+        <v>98.300653594771205</v>
       </c>
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.2">
@@ -19174,13 +19174,13 @@
         <v>6</v>
       </c>
       <c r="C550">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D550">
-        <v>856</v>
+        <v>808</v>
       </c>
       <c r="E550">
-        <v>824</v>
+        <v>778</v>
       </c>
       <c r="F550">
         <v>5</v>
@@ -19189,13 +19189,13 @@
         <v>37</v>
       </c>
       <c r="H550">
-        <v>25.75</v>
+        <v>25.933333333333302</v>
       </c>
       <c r="I550">
-        <v>10.2359266091735</v>
+        <v>10.527249807321301</v>
       </c>
       <c r="J550">
-        <v>104.774193548387</v>
+        <v>110.82298850574701</v>
       </c>
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.2">
@@ -19238,13 +19238,13 @@
         <v>61</v>
       </c>
       <c r="C552">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D552">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="E552">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="F552">
         <v>26</v>
@@ -19253,13 +19253,13 @@
         <v>47</v>
       </c>
       <c r="H552">
-        <v>34.368421052631497</v>
+        <v>34.8333333333333</v>
       </c>
       <c r="I552">
-        <v>8.0291865252533405</v>
+        <v>7.9944833920574396</v>
       </c>
       <c r="J552">
-        <v>64.467836257309898</v>
+        <v>63.911764705882298</v>
       </c>
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.2">
@@ -19526,13 +19526,13 @@
         <v>7</v>
       </c>
       <c r="C561">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D561">
-        <v>765</v>
+        <v>720</v>
       </c>
       <c r="E561">
-        <v>749</v>
+        <v>705</v>
       </c>
       <c r="F561">
         <v>13</v>
@@ -19541,13 +19541,13 @@
         <v>60</v>
       </c>
       <c r="H561">
-        <v>46.8125</v>
+        <v>47</v>
       </c>
       <c r="I561">
-        <v>14.7432187801714</v>
+        <v>15.240922356790399</v>
       </c>
       <c r="J561">
-        <v>217.36250000000001</v>
+        <v>232.28571428571399</v>
       </c>
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.2">
@@ -19558,13 +19558,13 @@
         <v>70</v>
       </c>
       <c r="C562">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D562">
-        <v>913</v>
+        <v>878</v>
       </c>
       <c r="E562">
-        <v>888</v>
+        <v>854</v>
       </c>
       <c r="F562">
         <v>14</v>
@@ -19573,13 +19573,13 @@
         <v>47</v>
       </c>
       <c r="H562">
-        <v>35.519999999999897</v>
+        <v>35.5833333333333</v>
       </c>
       <c r="I562">
-        <v>10.2596296229444</v>
+        <v>10.4752987574565</v>
       </c>
       <c r="J562">
-        <v>105.26</v>
+        <v>109.731884057971</v>
       </c>
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.2">
@@ -19686,13 +19686,13 @@
         <v>74</v>
       </c>
       <c r="C566">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D566">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="E566">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="F566">
         <v>17</v>
@@ -19701,13 +19701,13 @@
         <v>49</v>
       </c>
       <c r="H566">
-        <v>34.299999999999997</v>
+        <v>34.684210526315702</v>
       </c>
       <c r="I566">
-        <v>9.6687233141876394</v>
+        <v>9.7755513148247495</v>
       </c>
       <c r="J566">
-        <v>93.484210526315707</v>
+        <v>95.561403508771903</v>
       </c>
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.2">
@@ -20070,13 +20070,13 @@
         <v>87</v>
       </c>
       <c r="C578">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D578">
-        <v>1028</v>
+        <v>1057</v>
       </c>
       <c r="E578">
-        <v>1001</v>
+        <v>1029</v>
       </c>
       <c r="F578">
         <v>22</v>
@@ -20085,13 +20085,13 @@
         <v>44</v>
       </c>
       <c r="H578">
-        <v>37.074074074073998</v>
+        <v>36.75</v>
       </c>
       <c r="I578">
-        <v>6.3180201738660902</v>
+        <v>6.4327000263986802</v>
       </c>
       <c r="J578">
-        <v>39.917378917378898</v>
+        <v>41.379629629629598</v>
       </c>
     </row>
     <row r="579" spans="1:10" x14ac:dyDescent="0.2">
@@ -20518,13 +20518,13 @@
         <v>10</v>
       </c>
       <c r="C592">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D592">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E592">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F592">
         <v>4</v>
@@ -20533,13 +20533,13 @@
         <v>14</v>
       </c>
       <c r="H592">
-        <v>7.3333333333333304</v>
+        <v>9</v>
       </c>
       <c r="I592">
-        <v>5.7735026918962502</v>
+        <v>7.0710678118654702</v>
       </c>
       <c r="J592">
-        <v>33.3333333333333</v>
+        <v>50</v>
       </c>
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.2">
@@ -21094,13 +21094,13 @@
         <v>21</v>
       </c>
       <c r="C610">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D610">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E610">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F610">
         <v>9</v>
@@ -21109,13 +21109,13 @@
         <v>14</v>
       </c>
       <c r="H610">
-        <v>10.6666666666666</v>
+        <v>11.5</v>
       </c>
       <c r="I610">
-        <v>2.8867513459481202</v>
+        <v>3.5355339059327302</v>
       </c>
       <c r="J610">
-        <v>8.3333333333333304</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.2">
@@ -21222,13 +21222,13 @@
         <v>25</v>
       </c>
       <c r="C614">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D614">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E614">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F614">
         <v>6</v>
@@ -21237,13 +21237,13 @@
         <v>13</v>
       </c>
       <c r="H614">
-        <v>9.25</v>
+        <v>8.3333333333333304</v>
       </c>
       <c r="I614">
-        <v>3.77491721763537</v>
+        <v>4.0414518843273797</v>
       </c>
       <c r="J614">
-        <v>14.25</v>
+        <v>16.3333333333333</v>
       </c>
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.2">
@@ -21446,13 +21446,13 @@
         <v>31</v>
       </c>
       <c r="C621">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D621">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E621">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F621">
         <v>6</v>
@@ -21461,13 +21461,13 @@
         <v>13</v>
       </c>
       <c r="H621">
-        <v>9</v>
+        <v>8.3333333333333304</v>
       </c>
       <c r="I621">
-        <v>3.55902608401043</v>
+        <v>4.0414518843273797</v>
       </c>
       <c r="J621">
-        <v>12.6666666666666</v>
+        <v>16.3333333333333</v>
       </c>
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.2">
@@ -21606,13 +21606,13 @@
         <v>37</v>
       </c>
       <c r="C626">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D626">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E626">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F626">
         <v>6</v>
@@ -21624,10 +21624,10 @@
         <v>8</v>
       </c>
       <c r="I626">
-        <v>2.4494897427831699</v>
+        <v>2.8284271247461898</v>
       </c>
       <c r="J626">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.2">
@@ -22150,13 +22150,13 @@
         <v>54</v>
       </c>
       <c r="C643">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D643">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E643">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F643">
         <v>7</v>
@@ -22165,13 +22165,13 @@
         <v>10</v>
       </c>
       <c r="H643">
-        <v>8</v>
+        <v>8.3333333333333304</v>
       </c>
       <c r="I643">
-        <v>1.41421356237309</v>
+        <v>1.5275252316519401</v>
       </c>
       <c r="J643">
-        <v>2</v>
+        <v>2.3333333333333299</v>
       </c>
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.2">
@@ -22406,13 +22406,13 @@
         <v>62</v>
       </c>
       <c r="C651">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D651">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E651">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F651">
         <v>6</v>
@@ -22421,13 +22421,13 @@
         <v>9</v>
       </c>
       <c r="H651">
-        <v>7.4</v>
+        <v>7.75</v>
       </c>
       <c r="I651">
-        <v>1.51657508881031</v>
+        <v>1.5</v>
       </c>
       <c r="J651">
-        <v>2.2999999999999998</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="652" spans="1:10" x14ac:dyDescent="0.2">
@@ -22662,13 +22662,13 @@
         <v>70</v>
       </c>
       <c r="C659">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D659">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E659">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F659">
         <v>5</v>
@@ -22677,13 +22677,13 @@
         <v>10</v>
       </c>
       <c r="H659">
-        <v>8</v>
+        <v>7.6666666666666599</v>
       </c>
       <c r="I659">
-        <v>2.1602468994692798</v>
+        <v>2.51661147842358</v>
       </c>
       <c r="J659">
-        <v>4.6666666666666599</v>
+        <v>6.3333333333333304</v>
       </c>
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.2">
@@ -22694,13 +22694,13 @@
         <v>71</v>
       </c>
       <c r="C660">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D660">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E660">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F660">
         <v>9</v>
@@ -22712,10 +22712,10 @@
         <v>10</v>
       </c>
       <c r="I660">
-        <v>0.81649658092772603</v>
+        <v>1</v>
       </c>
       <c r="J660">
-        <v>0.66666666666666596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.2">
@@ -22822,13 +22822,13 @@
         <v>75</v>
       </c>
       <c r="C664">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D664">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E664">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F664">
         <v>7</v>
@@ -22837,13 +22837,13 @@
         <v>14</v>
       </c>
       <c r="H664">
-        <v>9.3333333333333304</v>
+        <v>10.5</v>
       </c>
       <c r="I664">
-        <v>4.0414518843273797</v>
+        <v>4.94974746830583</v>
       </c>
       <c r="J664">
-        <v>16.3333333333333</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.2">
@@ -22918,28 +22918,28 @@
         <v>78</v>
       </c>
       <c r="C667">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D667">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E667">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F667">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G667">
         <v>10</v>
       </c>
       <c r="H667">
-        <v>8.25</v>
+        <v>8.6666666666666607</v>
       </c>
       <c r="I667">
-        <v>1.25830573921179</v>
+        <v>1.1547005383792499</v>
       </c>
       <c r="J667">
-        <v>1.5833333333333299</v>
+        <v>1.3333333333333299</v>
       </c>
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.2">
@@ -23110,28 +23110,28 @@
         <v>84</v>
       </c>
       <c r="C673">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D673">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E673">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F673">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G673">
         <v>13</v>
       </c>
       <c r="H673">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="I673">
-        <v>2.1213203435596402</v>
+        <v>0</v>
       </c>
       <c r="J673">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.2">
@@ -23174,13 +23174,13 @@
         <v>86</v>
       </c>
       <c r="C675">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D675">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E675">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F675">
         <v>5</v>
@@ -23189,13 +23189,13 @@
         <v>9</v>
       </c>
       <c r="H675">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I675">
-        <v>2</v>
+        <v>1.91485421551267</v>
       </c>
       <c r="J675">
-        <v>4</v>
+        <v>3.6666666666666599</v>
       </c>
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.2">
@@ -23462,13 +23462,13 @@
         <v>94</v>
       </c>
       <c r="C684">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D684">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E684">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F684">
         <v>10</v>
@@ -23480,10 +23480,10 @@
         <v>11</v>
       </c>
       <c r="I684">
-        <v>1.41421356237309</v>
+        <v>1.7320508075688701</v>
       </c>
       <c r="J684">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="685" spans="1:10" x14ac:dyDescent="0.2">
@@ -24262,13 +24262,13 @@
         <v>26</v>
       </c>
       <c r="C709">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D709">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E709">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F709">
         <v>11</v>
@@ -24277,13 +24277,13 @@
         <v>17</v>
       </c>
       <c r="H709">
-        <v>14.6666666666666</v>
+        <v>14.8</v>
       </c>
       <c r="I709">
-        <v>2.2509257354845502</v>
+        <v>2.4899799195977401</v>
       </c>
       <c r="J709">
-        <v>5.0666666666666602</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="710" spans="1:10" x14ac:dyDescent="0.2">
@@ -24902,28 +24902,28 @@
         <v>44</v>
       </c>
       <c r="C729">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D729">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E729">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F729">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G729">
         <v>18</v>
       </c>
       <c r="H729">
-        <v>14.6</v>
+        <v>15.75</v>
       </c>
       <c r="I729">
-        <v>3.7815340802378001</v>
+        <v>3.2015621187164198</v>
       </c>
       <c r="J729">
-        <v>14.3</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="730" spans="1:10" x14ac:dyDescent="0.2">
@@ -25158,13 +25158,13 @@
         <v>51</v>
       </c>
       <c r="C737">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D737">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E737">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F737">
         <v>11</v>
@@ -25173,13 +25173,13 @@
         <v>17</v>
       </c>
       <c r="H737">
-        <v>15</v>
+        <v>14.6666666666666</v>
       </c>
       <c r="I737">
-        <v>2</v>
+        <v>1.96638416050035</v>
       </c>
       <c r="J737">
-        <v>4</v>
+        <v>3.86666666666666</v>
       </c>
     </row>
     <row r="738" spans="1:10" x14ac:dyDescent="0.2">
@@ -25670,13 +25670,13 @@
         <v>67</v>
       </c>
       <c r="C753">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D753">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E753">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F753">
         <v>17</v>
@@ -25685,13 +25685,13 @@
         <v>18</v>
       </c>
       <c r="H753">
-        <v>17.399999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="I753">
-        <v>0.54772255750516596</v>
+        <v>0.57735026918962495</v>
       </c>
       <c r="J753">
-        <v>0.3</v>
+        <v>0.33333333333333298</v>
       </c>
     </row>
     <row r="754" spans="1:10" x14ac:dyDescent="0.2">
@@ -25702,13 +25702,13 @@
         <v>68</v>
       </c>
       <c r="C754">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D754">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E754">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F754">
         <v>12</v>
@@ -25717,13 +25717,13 @@
         <v>18</v>
       </c>
       <c r="H754">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="I754">
-        <v>2.6076809620810502</v>
+        <v>3</v>
       </c>
       <c r="J754">
-        <v>6.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="755" spans="1:10" x14ac:dyDescent="0.2">
@@ -26246,13 +26246,13 @@
         <v>83</v>
       </c>
       <c r="C771">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D771">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E771">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F771">
         <v>5</v>
@@ -26261,13 +26261,13 @@
         <v>14</v>
       </c>
       <c r="H771">
-        <v>10.5714285714285</v>
+        <v>10.3333333333333</v>
       </c>
       <c r="I771">
-        <v>3.86683086679272</v>
+        <v>4.1793141383086603</v>
       </c>
       <c r="J771">
-        <v>14.952380952380899</v>
+        <v>17.466666666666601</v>
       </c>
     </row>
     <row r="772" spans="1:10" x14ac:dyDescent="0.2">
@@ -26342,13 +26342,13 @@
         <v>86</v>
       </c>
       <c r="C774">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D774">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E774">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F774">
         <v>9</v>
@@ -26357,13 +26357,13 @@
         <v>17</v>
       </c>
       <c r="H774">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="I774">
-        <v>3.3466401061363</v>
+        <v>3.8297084310253502</v>
       </c>
       <c r="J774">
-        <v>11.2</v>
+        <v>14.6666666666666</v>
       </c>
     </row>
     <row r="775" spans="1:10" x14ac:dyDescent="0.2">
@@ -26854,13 +26854,13 @@
         <v>100</v>
       </c>
       <c r="C790">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D790">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E790">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F790">
         <v>13</v>
@@ -26869,13 +26869,13 @@
         <v>19</v>
       </c>
       <c r="H790">
-        <v>16.2222222222222</v>
+        <v>16.375</v>
       </c>
       <c r="I790">
-        <v>1.7873008824606</v>
+        <v>1.84681192483541</v>
       </c>
       <c r="J790">
-        <v>3.1944444444444402</v>
+        <v>3.4107142857142798</v>
       </c>
     </row>
     <row r="791" spans="1:10" x14ac:dyDescent="0.2">
@@ -27078,13 +27078,13 @@
         <v>17</v>
       </c>
       <c r="C797">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D797">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E797">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="F797">
         <v>9</v>
@@ -27093,13 +27093,13 @@
         <v>20</v>
       </c>
       <c r="H797">
-        <v>15.5</v>
+        <v>15.5555555555555</v>
       </c>
       <c r="I797">
-        <v>3.9228674319799399</v>
+        <v>4.1566546377799698</v>
       </c>
       <c r="J797">
-        <v>15.3888888888888</v>
+        <v>17.2777777777777</v>
       </c>
     </row>
     <row r="798" spans="1:10" x14ac:dyDescent="0.2">
@@ -27622,13 +27622,13 @@
         <v>33</v>
       </c>
       <c r="C814">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D814">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="E814">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F814">
         <v>5</v>
@@ -27637,13 +27637,13 @@
         <v>22</v>
       </c>
       <c r="H814">
-        <v>12.125</v>
+        <v>11</v>
       </c>
       <c r="I814">
-        <v>6.4903774928735798</v>
+        <v>6.1101009266077799</v>
       </c>
       <c r="J814">
-        <v>42.125</v>
+        <v>37.3333333333333</v>
       </c>
     </row>
     <row r="815" spans="1:10" x14ac:dyDescent="0.2">
@@ -27814,13 +27814,13 @@
         <v>39</v>
       </c>
       <c r="C820">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D820">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E820">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F820">
         <v>5</v>
@@ -27829,13 +27829,13 @@
         <v>22</v>
       </c>
       <c r="H820">
-        <v>14.4285714285714</v>
+        <v>14.5</v>
       </c>
       <c r="I820">
-        <v>7.1846397000161097</v>
+        <v>7.8676553051083697</v>
       </c>
       <c r="J820">
-        <v>51.619047619047599</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="821" spans="1:10" x14ac:dyDescent="0.2">
@@ -28166,13 +28166,13 @@
         <v>49</v>
       </c>
       <c r="C831">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D831">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E831">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="F831">
         <v>17</v>
@@ -28181,13 +28181,13 @@
         <v>22</v>
       </c>
       <c r="H831">
-        <v>19.6666666666666</v>
+        <v>19.8</v>
       </c>
       <c r="I831">
-        <v>1.6329931618554501</v>
+        <v>1.7888543819998299</v>
       </c>
       <c r="J831">
-        <v>2.6666666666666599</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="832" spans="1:10" x14ac:dyDescent="0.2">
@@ -28390,28 +28390,28 @@
         <v>55</v>
       </c>
       <c r="C838">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D838">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="E838">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F838">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G838">
         <v>23</v>
       </c>
       <c r="H838">
-        <v>18.6666666666666</v>
+        <v>17.857142857142801</v>
       </c>
       <c r="I838">
-        <v>4.0331955899344401</v>
+        <v>4.25944329025016</v>
       </c>
       <c r="J838">
-        <v>16.266666666666602</v>
+        <v>18.1428571428571</v>
       </c>
     </row>
     <row r="839" spans="1:10" x14ac:dyDescent="0.2">
@@ -29830,13 +29830,13 @@
         <v>99</v>
       </c>
       <c r="C883">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D883">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E883">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="F883">
         <v>5</v>
@@ -29845,13 +29845,13 @@
         <v>21</v>
       </c>
       <c r="H883">
-        <v>13.875</v>
+        <v>13.1428571428571</v>
       </c>
       <c r="I883">
-        <v>5.6930408645744199</v>
+        <v>5.7279598296010903</v>
       </c>
       <c r="J883">
-        <v>32.410714285714199</v>
+        <v>32.809523809523803</v>
       </c>
     </row>
   </sheetData>
